--- a/v7filtered_protein_predictions.xlsx
+++ b/v7filtered_protein_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,52 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>seq</t>
+          <t>plDDT</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>plDDT</t>
+          <t>plDDT A</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>plDDT A</t>
+          <t>plDDT B</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>plDDT B</t>
+          <t>pTM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pTM</t>
+          <t>ipTM</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ipTM</t>
+          <t>evo pro</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evo pro</t>
+          <t>ctct score</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ctct score</t>
+          <t># ctct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t># ctct</t>
+          <t>PAE/ ctct</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>PAE/ ctct</t>
+          <t># ctct@residue</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PAE/ ctct@residue</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ctct score@residue</t>
         </is>
       </c>
     </row>
@@ -507,42 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SNVTVETFTLPDGRTAARLTVTHDPDTTREEAVDEVLAALNRHDRAPREVAERAVEEAEHGGGSATVTVSGGRLI</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91.82964116612554</v>
       </c>
       <c r="E2" t="n">
-        <v>93.75841804029302</v>
+        <v>92.25252545398324</v>
       </c>
       <c r="F2" t="n">
-        <v>94.13828587301586</v>
+        <v>80.97561111111111</v>
       </c>
       <c r="G2" t="n">
-        <v>84.26172222222222</v>
+        <v>0.86</v>
       </c>
       <c r="H2" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="I2" t="n">
-        <v>0.66</v>
+        <v>-24.96010697375541</v>
       </c>
       <c r="J2" t="n">
-        <v>-33.27869894688645</v>
+        <v>15.77714285714286</v>
       </c>
       <c r="K2" t="n">
-        <v>23.90285714285714</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>27</v>
+        <v>5.035294117647067</v>
       </c>
       <c r="M2" t="n">
-        <v>8.029629629629628</v>
+        <v>11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.863636363636363</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.23571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -552,42 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>APGGISAEIIKQALETGEVTVTYNPDDSPEAIYADIEKYAAETGKISEEGLAKIKAAVDAARNVPLGGSARVSGVLKE</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.2985333832834</v>
       </c>
       <c r="E3" t="n">
-        <v>92.92727416136674</v>
+        <v>90.71151916305918</v>
       </c>
       <c r="F3" t="n">
-        <v>93.38156462056462</v>
+        <v>79.97388888888889</v>
       </c>
       <c r="G3" t="n">
-        <v>81.11572222222223</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I3" t="n">
-        <v>0.68</v>
+        <v>-23.17556762404262</v>
       </c>
       <c r="J3" t="n">
-        <v>-27.47987027327953</v>
+        <v>14.14571428571428</v>
       </c>
       <c r="K3" t="n">
-        <v>18.18714285714286</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>20</v>
+        <v>8.112500000000004</v>
       </c>
       <c r="M3" t="n">
-        <v>6.345000000000004</v>
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.660000000000002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.905714285714286</v>
       </c>
     </row>
     <row r="4">
@@ -597,42 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>APGAISAQIIRQALETGSVDVTYAPDPSIEAIKADIRAAAAASGKISEEGLEKIFAAIDEAAKVPEGGSARVSGVLKE</t>
-        </is>
+      <c r="D4" t="n">
+        <v>89.60807782032781</v>
       </c>
       <c r="E4" t="n">
-        <v>91.64463754386902</v>
+        <v>90.30719426647426</v>
       </c>
       <c r="F4" t="n">
-        <v>92.13602958615461</v>
+        <v>72.13016666666665</v>
       </c>
       <c r="G4" t="n">
-        <v>78.86844444444445</v>
+        <v>0.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7</v>
+        <v>-20.42795063917564</v>
       </c>
       <c r="J4" t="n">
-        <v>-20.99874946867261</v>
+        <v>11.46714285714286</v>
       </c>
       <c r="K4" t="n">
-        <v>11.83428571428571</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>13</v>
+        <v>8.253846153846151</v>
       </c>
       <c r="M4" t="n">
-        <v>6.276923076923088</v>
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.699999999999998</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.254285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -642,42 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AEMRVERIRATDTEVRVRSELTYDPESSAADMRAAVAAALRAAGASAADADAAAARLVDAARAPEGGSATLDETLAR</t>
-        </is>
+      <c r="D5" t="n">
+        <v>91.64177115511376</v>
       </c>
       <c r="E5" t="n">
-        <v>94.345023633658</v>
+        <v>92.15432859270361</v>
       </c>
       <c r="F5" t="n">
-        <v>94.99621503064036</v>
+        <v>78.31527777777778</v>
       </c>
       <c r="G5" t="n">
-        <v>77.63111111111112</v>
+        <v>0.82</v>
       </c>
       <c r="H5" t="n">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="I5" t="n">
-        <v>0.66</v>
+        <v>-23.6027485440828</v>
       </c>
       <c r="J5" t="n">
-        <v>-16.63021664908009</v>
+        <v>14.43857142857143</v>
       </c>
       <c r="K5" t="n">
-        <v>7.195714285714286</v>
+        <v>16</v>
       </c>
       <c r="L5" t="n">
+        <v>6.831249999999997</v>
+      </c>
+      <c r="M5" t="n">
         <v>8</v>
       </c>
-      <c r="M5" t="n">
-        <v>7.037500000000001</v>
+      <c r="N5" t="n">
+        <v>6.712499999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7.232857142857143</v>
       </c>
     </row>
     <row r="6">
@@ -690,39 +716,43 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>AELSVERVEATATSVRVRASLTYDPASDPAEMRAAVAAALRAAGASAADADAAAARLVDAARAPEGGSATLDETLAR</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90.64176743777055</v>
       </c>
       <c r="E6" t="n">
-        <v>94.00508561958875</v>
+        <v>91.31663283577896</v>
       </c>
       <c r="F6" t="n">
-        <v>94.6237772671052</v>
+        <v>73.32022222222223</v>
       </c>
       <c r="G6" t="n">
-        <v>78.12533333333333</v>
+        <v>0.87</v>
       </c>
       <c r="H6" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="I6" t="n">
-        <v>0.62</v>
+        <v>-23.61989102949135</v>
       </c>
       <c r="J6" t="n">
-        <v>-19.05336570481602</v>
+        <v>14.55571428571429</v>
       </c>
       <c r="K6" t="n">
-        <v>9.652857142857144</v>
+        <v>16</v>
       </c>
       <c r="L6" t="n">
+        <v>6.318750000000001</v>
+      </c>
+      <c r="M6" t="n">
         <v>11</v>
       </c>
-      <c r="M6" t="n">
-        <v>8.572727272727269</v>
+      <c r="N6" t="n">
+        <v>6.25454545454545</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10.01714285714286</v>
       </c>
     </row>
     <row r="7">
@@ -735,39 +765,43 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>APGDALVSVTASADGSSVTVALTYDPAVSREEMVALVADRLAAALGLPRERMRPAAVAAVDAARGGGGSATVTVTRDGGP</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90.0619053399746</v>
       </c>
       <c r="E7" t="n">
-        <v>89.13711025921869</v>
+        <v>90.78448095689032</v>
       </c>
       <c r="F7" t="n">
-        <v>89.90889772727272</v>
+        <v>70.79322222222221</v>
       </c>
       <c r="G7" t="n">
-        <v>68.55611111111112</v>
+        <v>0.86</v>
       </c>
       <c r="H7" t="n">
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="I7" t="n">
-        <v>0.63</v>
+        <v>-17.09190481971175</v>
       </c>
       <c r="J7" t="n">
-        <v>-15.14371102592187</v>
+        <v>8.085714285714287</v>
       </c>
       <c r="K7" t="n">
-        <v>6.23</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.111111111111098</v>
       </c>
       <c r="M7" t="n">
-        <v>7.699999999999997</v>
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.079999999999996</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.494285714285715</v>
       </c>
     </row>
     <row r="8">
@@ -782,37 +816,41 @@
       <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>APGAGLVRVERAPDGSSVTVHLTHAPDVSEEEMVALVATLLAEALGLPLEAMRPAAEAAVAEARGPGGSATRTVGRDGSP</t>
-        </is>
+      <c r="D8" t="n">
+        <v>88.67646748900363</v>
       </c>
       <c r="E8" t="n">
-        <v>93.48730636398408</v>
+        <v>89.56322251984128</v>
       </c>
       <c r="F8" t="n">
-        <v>93.86419701930016</v>
+        <v>65.02966666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>83.4368888888889</v>
+        <v>0.83</v>
       </c>
       <c r="H8" t="n">
-        <v>0.86</v>
+        <v>0.61</v>
       </c>
       <c r="I8" t="n">
-        <v>0.76</v>
+        <v>-18.46478960604322</v>
       </c>
       <c r="J8" t="n">
-        <v>-23.19444492211269</v>
+        <v>9.597142857142856</v>
       </c>
       <c r="K8" t="n">
-        <v>13.84571428571428</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>15</v>
+        <v>8.927272727272731</v>
       </c>
       <c r="M8" t="n">
-        <v>5.386666666666679</v>
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.328571428571428</v>
       </c>
     </row>
     <row r="9">
@@ -825,39 +863,43 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90.64776246544621</v>
+      </c>
+      <c r="E9" t="n">
+        <v>91.20598272456712</v>
+      </c>
+      <c r="F9" t="n">
+        <v>75.76188888888889</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-19.13049053225891</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.06571428571429</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.945454545454544</v>
+      </c>
+      <c r="M9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ARGAPLVRVTASADGSSVTVELTYDDDVSEEEMVALVARLLAEALGLPLAALRPAAEAAVAEARGGGGSATRTVTRDGGP</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>90.68010609537718</v>
-      </c>
-      <c r="F9" t="n">
-        <v>91.27776007395384</v>
-      </c>
-      <c r="G9" t="n">
-        <v>74.74266666666669</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-19.73943918096629</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10.67142857142857</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7.75000000000001</v>
+      <c r="N9" t="n">
+        <v>5.887500000000003</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7.327142857142857</v>
       </c>
     </row>
     <row r="10">
@@ -867,42 +909,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ALEVWRREALDADGRRVTEVVGRVTYDPDTSFEEAVAAVRAALAAAGVTDEAVAVRAVEEARFGGGSAEVRLALGPA</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>91.07026319188356</v>
       </c>
       <c r="E10" t="n">
-        <v>91.74189816919193</v>
+        <v>91.32759382746882</v>
       </c>
       <c r="F10" t="n">
-        <v>92.15675783812146</v>
+        <v>84.37966666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>81.09383333333334</v>
+        <v>0.82</v>
       </c>
       <c r="H10" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>0.78</v>
+        <v>-26.60131203347408</v>
       </c>
       <c r="J10" t="n">
-        <v>-21.34133267406205</v>
+        <v>17.49428571428572</v>
       </c>
       <c r="K10" t="n">
-        <v>12.16714285714286</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>13</v>
+        <v>5.547368421052624</v>
       </c>
       <c r="M10" t="n">
-        <v>4.48461538461539</v>
+        <v>11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.209090909090915</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10.18142857142857</v>
       </c>
     </row>
     <row r="11">
@@ -912,42 +958,46 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>91.50826527621898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>91.7389271885522</v>
+      </c>
+      <c r="F11" t="n">
+        <v>85.51105555555556</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-22.92796938476476</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.77714285714286</v>
+      </c>
+      <c r="K11" t="n">
         <v>15</v>
       </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ALTVRRVEREDEDGRTRTVVEGEVTYDPDTSREEAIARVAAALAAAGVTDRSIAEKMVNEAEFGGGSARFEIALGPE</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>90.52673320707068</v>
-      </c>
-      <c r="F11" t="n">
-        <v>90.93413190345008</v>
-      </c>
-      <c r="G11" t="n">
-        <v>80.07016666666665</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-26.73981617784993</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17.68714285714286</v>
-      </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>5.706666666666668</v>
       </c>
       <c r="M11" t="n">
-        <v>8.094999999999994</v>
+        <v>9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.800000000000005</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8.382857142857143</v>
       </c>
     </row>
     <row r="12">
@@ -960,39 +1010,43 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ALTVRTVERKDADGRTRRVVVGTVTYNPDTSREEAVARVRAALAAAGVTDASIAEAAVNEAEYGGGSATVEVALGPE</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>94.08818693632756</v>
       </c>
       <c r="E12" t="n">
-        <v>93.28675535263348</v>
+        <v>94.56412279098966</v>
       </c>
       <c r="F12" t="n">
-        <v>93.51302071269281</v>
+        <v>81.8725</v>
       </c>
       <c r="G12" t="n">
-        <v>87.47927777777778</v>
+        <v>0.83</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.79</v>
+        <v>-22.22881869363276</v>
       </c>
       <c r="J12" t="n">
-        <v>-32.63438982097763</v>
+        <v>12.82</v>
       </c>
       <c r="K12" t="n">
-        <v>23.30571428571428</v>
+        <v>14</v>
       </c>
       <c r="L12" t="n">
-        <v>25</v>
+        <v>5.90000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>4.744000000000005</v>
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.340000000000009</v>
+      </c>
+      <c r="O12" t="n">
+        <v>9.237142857142857</v>
       </c>
     </row>
     <row r="13">
@@ -1002,42 +1056,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ALTVERVRRRDPDGRERLVVRGRLTHDPATSVAAAVAATAAALAAAGVTDAAVAVRMVAEARYGGGSATFELALGPA</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>94.5409747610029</v>
       </c>
       <c r="E13" t="n">
-        <v>91.57032448142137</v>
+        <v>95.07312529281684</v>
       </c>
       <c r="F13" t="n">
-        <v>92.28091288113042</v>
+        <v>80.88244444444445</v>
       </c>
       <c r="G13" t="n">
-        <v>73.3318888888889</v>
+        <v>0.87</v>
       </c>
       <c r="H13" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="I13" t="n">
-        <v>0.62</v>
+        <v>-24.80266890467172</v>
       </c>
       <c r="J13" t="n">
-        <v>-11.80131816242785</v>
+        <v>15.34857142857143</v>
       </c>
       <c r="K13" t="n">
-        <v>2.644285714285714</v>
+        <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>6.799999999999994</v>
       </c>
       <c r="M13" t="n">
-        <v>8.300000000000002</v>
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.566666666666663</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.437142857142858</v>
       </c>
     </row>
     <row r="14">
@@ -1047,42 +1105,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ASASDRLISLEGLDEDTVTLTLRHAPDPTPEEALARVLEVGQRYMGLSEEQARAMVEAARRAPEGGSASVTGPRVVP</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>89.47157478035327</v>
       </c>
       <c r="E14" t="n">
-        <v>91.94255114989178</v>
+        <v>90.24858211817424</v>
       </c>
       <c r="F14" t="n">
-        <v>92.50645357564514</v>
+        <v>69.78738888888888</v>
       </c>
       <c r="G14" t="n">
-        <v>77.46905555555556</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="I14" t="n">
-        <v>0.64</v>
+        <v>-19.54715747803532</v>
       </c>
       <c r="J14" t="n">
-        <v>-22.09996940070346</v>
+        <v>10.6</v>
       </c>
       <c r="K14" t="n">
-        <v>12.90571428571428</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>15</v>
+        <v>8.166666666666677</v>
       </c>
       <c r="M14" t="n">
-        <v>9.773333333333342</v>
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.528571428571428</v>
       </c>
     </row>
     <row r="15">
@@ -1092,42 +1154,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ATASRKLISLEGLDEDTVTLTLRYAPDPTPEEALALVLQVGQEHMGLTEEQARAVVEQARRAPEGGSASVTGPRVVP</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>89.04023724131002</v>
       </c>
       <c r="E15" t="n">
-        <v>89.19976611201298</v>
+        <v>89.71073125522139</v>
       </c>
       <c r="F15" t="n">
-        <v>89.7614344886715</v>
+        <v>72.05438888888888</v>
       </c>
       <c r="G15" t="n">
-        <v>74.78361111111111</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="I15" t="n">
-        <v>0.61</v>
+        <v>-22.14545229555958</v>
       </c>
       <c r="J15" t="n">
-        <v>-18.4599766112013</v>
+        <v>13.24142857142857</v>
       </c>
       <c r="K15" t="n">
-        <v>9.539999999999999</v>
+        <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>11</v>
+        <v>8.20666666666666</v>
       </c>
       <c r="M15" t="n">
-        <v>9.290909090909096</v>
+        <v>7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.057142857142853</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.194285714285715</v>
       </c>
     </row>
     <row r="16">
@@ -1137,42 +1203,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ASASLRLISLEGLDGDTVTLTLRYDPSTSREEALARVLEVGQRHMGISEEQARRMVEEAERAPEGGSASVTGPRVVP</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>91.92813331681704</v>
       </c>
       <c r="E16" t="n">
-        <v>89.17051000180376</v>
+        <v>92.53683831619767</v>
       </c>
       <c r="F16" t="n">
-        <v>89.73575714473117</v>
+        <v>75.69599999999998</v>
       </c>
       <c r="G16" t="n">
-        <v>74.66249999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H16" t="n">
-        <v>0.82</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7</v>
+        <v>-20.59852761739599</v>
       </c>
       <c r="J16" t="n">
-        <v>-21.4656224287518</v>
+        <v>11.40571428571429</v>
       </c>
       <c r="K16" t="n">
-        <v>12.54857142857143</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>14</v>
+        <v>8.584615384615386</v>
       </c>
       <c r="M16" t="n">
-        <v>7.257142857142859</v>
+        <v>5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.640000000000009</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.382857142857143</v>
       </c>
     </row>
     <row r="17">
@@ -1182,42 +1252,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>AADAMRVTVGPGTGGPEWGDHAVDVTDGPDETREGAIARIKALLDAAGLTASDATIEAAVDATRSGPPGGSARFGADSKP</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>91.67093143569952</v>
       </c>
       <c r="E17" t="n">
-        <v>89.57078442775432</v>
+        <v>92.3036080312049</v>
       </c>
       <c r="F17" t="n">
-        <v>90.20680134379508</v>
+        <v>74.79955555555556</v>
       </c>
       <c r="G17" t="n">
-        <v>72.61033333333334</v>
+        <v>0.84</v>
       </c>
       <c r="H17" t="n">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
       <c r="I17" t="n">
-        <v>0.65</v>
+        <v>-18.09995028642709</v>
       </c>
       <c r="J17" t="n">
-        <v>-21.25422129991829</v>
+        <v>8.932857142857143</v>
       </c>
       <c r="K17" t="n">
-        <v>12.29714285714286</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>14</v>
+        <v>7.469999999999994</v>
       </c>
       <c r="M17" t="n">
-        <v>8.514285714285718</v>
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.350000000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="18">
@@ -1227,42 +1301,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SSLVSAERHLSADGQRSFLTTRVRYNPDMTEEEAVAAVAAAMARHAEPDLALARELVRRARPGGEGGGSATLTREVERKE</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>89.64995524087692</v>
       </c>
       <c r="E18" t="n">
-        <v>93.43291418922443</v>
+        <v>90.35727647907648</v>
       </c>
       <c r="F18" t="n">
-        <v>93.73228597132037</v>
+        <v>70.78805555555556</v>
       </c>
       <c r="G18" t="n">
-        <v>85.44966666666666</v>
+        <v>0.79</v>
       </c>
       <c r="H18" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="I18" t="n">
-        <v>0.76</v>
+        <v>-16.87213838123055</v>
       </c>
       <c r="J18" t="n">
-        <v>-17.51329141892244</v>
+        <v>7.907142857142857</v>
       </c>
       <c r="K18" t="n">
-        <v>8.17</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M18" t="n">
-        <v>6.455555555555558</v>
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.550000000000002</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.267142857142857</v>
       </c>
     </row>
     <row r="19">
@@ -1272,42 +1350,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>AGDTGVEWLERRTLPDGTTEVTVRLTYRPDATLEAAIAALAAPVGLDSPEARAAARAIAEAAAAPGGGSAEGTLRGGR</t>
-        </is>
+      <c r="D19" t="n">
+        <v>90.53824813311689</v>
       </c>
       <c r="E19" t="n">
-        <v>90.39238287638288</v>
+        <v>91.11648290886602</v>
       </c>
       <c r="F19" t="n">
-        <v>90.90325444000445</v>
+        <v>75.69688888888889</v>
       </c>
       <c r="G19" t="n">
-        <v>77.10972222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I19" t="n">
-        <v>0.74</v>
+        <v>-18.80096767045455</v>
       </c>
       <c r="J19" t="n">
-        <v>-23.52638114478115</v>
+        <v>9.747142857142858</v>
       </c>
       <c r="K19" t="n">
-        <v>14.48714285714286</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>16</v>
+        <v>7.972727272727266</v>
       </c>
       <c r="M19" t="n">
-        <v>6.618749999999992</v>
+        <v>6</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8.033333333333331</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.311428571428571</v>
       </c>
     </row>
     <row r="20">
@@ -1317,42 +1399,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>AIIERLGERTLPDGRRAVSYRLTNDPDSTVEETRAAVRAALAKDGARASDEEIDAAIAAARTPPGNSAVLTARPAP</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>92.70596180054513</v>
       </c>
       <c r="E20" t="n">
-        <v>94.82979204339964</v>
+        <v>93.3734881091131</v>
       </c>
       <c r="F20" t="n">
-        <v>95.2018474310777</v>
+        <v>75.35027777777778</v>
       </c>
       <c r="G20" t="n">
-        <v>85.40438888888889</v>
+        <v>0.84</v>
       </c>
       <c r="H20" t="n">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="I20" t="n">
-        <v>0.76</v>
+        <v>-22.65916760862594</v>
       </c>
       <c r="J20" t="n">
-        <v>-16.84869349005425</v>
+        <v>13.38857142857143</v>
       </c>
       <c r="K20" t="n">
-        <v>7.365714285714286</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>7.519999999999997</v>
       </c>
       <c r="M20" t="n">
-        <v>5.549999999999997</v>
+        <v>6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.216666666666659</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.381428571428572</v>
       </c>
     </row>
     <row r="21">
@@ -1362,42 +1448,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>AEIERLGERTLPDGRRAVEYRLRNDPDSTVAETRAAVKAALAKDGAVASDAEIDAAIAAARRPPGGEAVLTAAPLP</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>89.6121411577044</v>
       </c>
       <c r="E21" t="n">
-        <v>91.9447842210532</v>
+        <v>90.12165686778501</v>
       </c>
       <c r="F21" t="n">
-        <v>92.40024500170884</v>
+        <v>76.02505555555554</v>
       </c>
       <c r="G21" t="n">
-        <v>80.40644444444445</v>
+        <v>0.82</v>
       </c>
       <c r="H21" t="n">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="I21" t="n">
-        <v>0.71</v>
+        <v>-18.72549983005615</v>
       </c>
       <c r="J21" t="n">
-        <v>-18.21162127924818</v>
+        <v>9.764285714285714</v>
       </c>
       <c r="K21" t="n">
-        <v>9.017142857142858</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>7.863636363636363</v>
       </c>
       <c r="M21" t="n">
-        <v>6.879999999999996</v>
+        <v>6</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.26666666666666</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.291428571428572</v>
       </c>
     </row>
     <row r="22">
@@ -1407,42 +1497,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ARIRRLGERTLPDGRRAREFLLLNDPDSTVAEARAAVRAALARDGARASDAAIDAAIAAARAPPGNSAVLTAAPAA</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>89.17384595959597</v>
       </c>
       <c r="E22" t="n">
-        <v>91.73576220614829</v>
+        <v>89.61741101641414</v>
       </c>
       <c r="F22" t="n">
-        <v>92.58514755639099</v>
+        <v>77.34544444444445</v>
       </c>
       <c r="G22" t="n">
-        <v>70.218</v>
+        <v>0.82</v>
       </c>
       <c r="H22" t="n">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="I22" t="n">
-        <v>0.61</v>
+        <v>-26.01167031024531</v>
       </c>
       <c r="J22" t="n">
-        <v>-18.90357622061483</v>
+        <v>17.09428571428572</v>
       </c>
       <c r="K22" t="n">
-        <v>9.73</v>
+        <v>19</v>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>7.021052631578928</v>
       </c>
       <c r="M22" t="n">
-        <v>8.08181818181818</v>
+        <v>9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.377777777777776</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8.18</v>
       </c>
     </row>
     <row r="23">
@@ -1452,42 +1546,46 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>26</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>90.31560301813316</v>
+      </c>
+      <c r="E23" t="n">
+        <v>90.85231313131314</v>
+      </c>
+      <c r="F23" t="n">
+        <v>76.00333333333333</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-26.87870315895617</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17.84714285714285</v>
+      </c>
+      <c r="K23" t="n">
         <v>20</v>
       </c>
-      <c r="C23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>AQVELLGERELPDGRRAWAFRLTNDPDSTVEETRAALRAALARVGARASDAEIEAAIAEARKPPGNSAVLVAAPEP</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>91.34448975286318</v>
-      </c>
-      <c r="F23" t="n">
-        <v>91.95116697994987</v>
-      </c>
-      <c r="G23" t="n">
-        <v>75.97533333333332</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-22.93302040385774</v>
-      </c>
-      <c r="K23" t="n">
-        <v>13.79857142857143</v>
-      </c>
       <c r="L23" t="n">
-        <v>16</v>
+        <v>7.535000000000013</v>
       </c>
       <c r="M23" t="n">
-        <v>9.63125</v>
+        <v>12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.35833333333333</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10.73857142857143</v>
       </c>
     </row>
     <row r="24">
@@ -1497,42 +1595,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ARIERLGWRELPDGRRAVSYRLTHDPASTVAEARAAVRAALARDGARASDAAIDAAIAAARRPPGGSAVLTARPAP</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>94.34031088664425</v>
       </c>
       <c r="E24" t="n">
-        <v>95.2656230615376</v>
+        <v>94.80638267288268</v>
       </c>
       <c r="F24" t="n">
-        <v>95.64765204203692</v>
+        <v>82.22244444444445</v>
       </c>
       <c r="G24" t="n">
-        <v>85.58755555555557</v>
+        <v>0.86</v>
       </c>
       <c r="H24" t="n">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="I24" t="n">
-        <v>0.77</v>
+        <v>-21.54545966009299</v>
       </c>
       <c r="J24" t="n">
-        <v>-31.69370516329662</v>
+        <v>12.11142857142857</v>
       </c>
       <c r="K24" t="n">
-        <v>22.16714285714286</v>
+        <v>13</v>
       </c>
       <c r="L24" t="n">
-        <v>24</v>
+        <v>4.784615384615379</v>
       </c>
       <c r="M24" t="n">
-        <v>5.345833333333331</v>
+        <v>9</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.411111111111103</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8.432857142857143</v>
       </c>
     </row>
     <row r="25">
@@ -1542,42 +1644,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>94.5394429479985</v>
+      </c>
+      <c r="E25" t="n">
+        <v>94.85639801864802</v>
+      </c>
+      <c r="F25" t="n">
+        <v>86.2986111111111</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-21.65251572337128</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12.19857142857143</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.315384615384617</v>
+      </c>
+      <c r="M25" t="n">
         <v>9</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>AQIRLLGERELPDGRRAWEFLLEHDPASTVAETRAAVRAALAERGARASDEAIDAAIAAARAPPGLSAVLTARPAP</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>91.66993735273164</v>
-      </c>
-      <c r="F25" t="n">
-        <v>92.30484277455</v>
-      </c>
-      <c r="G25" t="n">
-        <v>75.58566666666667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-20.69842230670174</v>
-      </c>
-      <c r="K25" t="n">
-        <v>11.53142857142857</v>
-      </c>
-      <c r="L25" t="n">
-        <v>13</v>
-      </c>
-      <c r="M25" t="n">
-        <v>7.907692307692313</v>
+      <c r="N25" t="n">
+        <v>3.788888888888904</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8.512857142857142</v>
       </c>
     </row>
     <row r="26">
@@ -1587,42 +1693,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ALLSVSPVRRITPDGGEGRTFTVRNAPDPTPEAMRAAAAALIQREAHLTPEEAAAAAAAMVDEARRPEGGSASRTLPVKA</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>89.26819724137317</v>
       </c>
       <c r="E26" t="n">
-        <v>92.46523425302944</v>
+        <v>89.6982432891183</v>
       </c>
       <c r="F26" t="n">
-        <v>92.96993053751804</v>
+        <v>78.087</v>
       </c>
       <c r="G26" t="n">
-        <v>79.00666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="I26" t="n">
-        <v>0.72</v>
+        <v>-21.58681972413732</v>
       </c>
       <c r="J26" t="n">
-        <v>-17.4536662824458</v>
+        <v>12.66</v>
       </c>
       <c r="K26" t="n">
-        <v>8.207142857142857</v>
+        <v>14</v>
       </c>
       <c r="L26" t="n">
+        <v>6.700000000000005</v>
+      </c>
+      <c r="M26" t="n">
         <v>9</v>
       </c>
-      <c r="M26" t="n">
-        <v>6.166666666666667</v>
+      <c r="N26" t="n">
+        <v>6.199999999999995</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8.202857142857143</v>
       </c>
     </row>
     <row r="27">
@@ -1632,42 +1742,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GITWGSGRITVVQTRAGDVSLVVRDAPDPTDAGMIAELKALAAAAGFTISDETARAGVALARGPGGAAVVDASRQTARPL</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>89.35947545561434</v>
       </c>
       <c r="E27" t="n">
-        <v>92.11654840574418</v>
+        <v>89.79969246031747</v>
       </c>
       <c r="F27" t="n">
-        <v>93.00274605429291</v>
+        <v>77.91383333333334</v>
       </c>
       <c r="G27" t="n">
-        <v>68.48461111111111</v>
+        <v>0.82</v>
       </c>
       <c r="H27" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="I27" t="n">
-        <v>0.62</v>
+        <v>-23.70309040270429</v>
       </c>
       <c r="J27" t="n">
-        <v>-22.34308341200299</v>
+        <v>14.76714285714286</v>
       </c>
       <c r="K27" t="n">
-        <v>13.13142857142857</v>
+        <v>16</v>
       </c>
       <c r="L27" t="n">
-        <v>15</v>
+        <v>5.393749999999997</v>
       </c>
       <c r="M27" t="n">
-        <v>8.720000000000004</v>
+        <v>12</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.208333333333333</v>
+      </c>
+      <c r="O27" t="n">
+        <v>11.10714285714286</v>
       </c>
     </row>
     <row r="28">
@@ -1677,42 +1791,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ASVGMRVETFEGPDGRTYVRLRLENAPDPDLAAVIAEVNALLAEHTGDTDPAAGAALANAAAAPSGGSATLVRLARA</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>89.04849464218908</v>
       </c>
       <c r="E28" t="n">
-        <v>89.10862951388887</v>
+        <v>89.52276366688868</v>
       </c>
       <c r="F28" t="n">
-        <v>89.62807611832611</v>
+        <v>76.71749999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>75.77616666666665</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="I28" t="n">
-        <v>0.71</v>
+        <v>-25.19913517850462</v>
       </c>
       <c r="J28" t="n">
-        <v>-20.79800580853174</v>
+        <v>16.29428571428571</v>
       </c>
       <c r="K28" t="n">
-        <v>11.88714285714286</v>
+        <v>18</v>
       </c>
       <c r="L28" t="n">
-        <v>13</v>
+        <v>6.633333333333338</v>
       </c>
       <c r="M28" t="n">
-        <v>5.992307692307691</v>
+        <v>12</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.208333333333324</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10.93571428571429</v>
       </c>
     </row>
     <row r="29">
@@ -1722,42 +1840,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>ASVGYTVEVYEGPDGRRYVRIRVENDPDRDLDEVIAEINALLREYMGITDPAAGEKLANQAAAPEGGSATVERLARE</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>90.83309730016212</v>
       </c>
       <c r="E29" t="n">
-        <v>89.26752345779221</v>
+        <v>91.39781258093758</v>
       </c>
       <c r="F29" t="n">
-        <v>89.8875893067971</v>
+        <v>76.15049999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>73.35249999999999</v>
+        <v>0.84</v>
       </c>
       <c r="H29" t="n">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
       <c r="I29" t="n">
-        <v>0.68</v>
+        <v>-24.38616687287336</v>
       </c>
       <c r="J29" t="n">
-        <v>-22.34389520292208</v>
+        <v>15.30285714285714</v>
       </c>
       <c r="K29" t="n">
-        <v>13.41714285714286</v>
+        <v>17</v>
       </c>
       <c r="L29" t="n">
-        <v>15</v>
+        <v>6.988235294117644</v>
       </c>
       <c r="M29" t="n">
-        <v>7.386666666666656</v>
+        <v>10</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.730000000000007</v>
+      </c>
+      <c r="O29" t="n">
+        <v>9.038571428571428</v>
       </c>
     </row>
     <row r="30">
@@ -1767,42 +1889,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>AVDTIVSVRVDASGRRVTAEVRYAPEPTREEQVARLLARLRAAGATDATEADARAMVDETEDREKGGGSATRTFALGP</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>94.20734822528421</v>
       </c>
       <c r="E30" t="n">
-        <v>89.62821165357276</v>
+        <v>94.4368466810967</v>
       </c>
       <c r="F30" t="n">
-        <v>90.2257668026418</v>
+        <v>88.16388888888889</v>
       </c>
       <c r="G30" t="n">
-        <v>74.09177777777778</v>
+        <v>0.87</v>
       </c>
       <c r="H30" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="I30" t="n">
-        <v>0.76</v>
+        <v>-26.63787767967128</v>
       </c>
       <c r="J30" t="n">
-        <v>-19.59424973678585</v>
+        <v>17.21714285714286</v>
       </c>
       <c r="K30" t="n">
-        <v>10.63142857142857</v>
+        <v>18</v>
       </c>
       <c r="L30" t="n">
-        <v>12</v>
+        <v>3.044444444444442</v>
       </c>
       <c r="M30" t="n">
-        <v>7.983333333333339</v>
+        <v>8</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.8125</v>
+      </c>
+      <c r="O30" t="n">
+        <v>7.678571428571429</v>
       </c>
     </row>
     <row r="31">
@@ -1812,42 +1938,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>AVDTIVEVRVLPDGRRVRVEVRHAPGPSAAAQVAALLARLRAAGASDATEADAAAVVAEAADAAAGGGSATREFALGP</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>91.40175306415119</v>
       </c>
       <c r="E31" t="n">
-        <v>89.40348594409706</v>
+        <v>92.08141450678951</v>
       </c>
       <c r="F31" t="n">
-        <v>90.1050495060495</v>
+        <v>73.73055555555557</v>
       </c>
       <c r="G31" t="n">
-        <v>71.16283333333332</v>
+        <v>0.85</v>
       </c>
       <c r="H31" t="n">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
       <c r="I31" t="n">
-        <v>0.67</v>
+        <v>-22.59017530641512</v>
       </c>
       <c r="J31" t="n">
-        <v>-19.59320573726685</v>
+        <v>13.45</v>
       </c>
       <c r="K31" t="n">
-        <v>10.65285714285714</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>12</v>
+        <v>7.233333333333325</v>
       </c>
       <c r="M31" t="n">
-        <v>7.858333333333339</v>
+        <v>8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.162500000000001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>7.181428571428572</v>
       </c>
     </row>
     <row r="32">
@@ -1857,42 +1987,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>AVDTIVSVRVAADGRTVTVELRHAPTPSAAEQVARLLAALRAAGASDATEADAAAVVAAAADKAAGGGSATRTFKLGP</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>90.07119960795565</v>
       </c>
       <c r="E32" t="n">
-        <v>89.15384995457218</v>
+        <v>90.52443209325398</v>
       </c>
       <c r="F32" t="n">
-        <v>89.83235486735487</v>
+        <v>77.985</v>
       </c>
       <c r="G32" t="n">
-        <v>71.51272222222222</v>
+        <v>0.83</v>
       </c>
       <c r="H32" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="I32" t="n">
-        <v>0.72</v>
+        <v>-20.89426281793842</v>
       </c>
       <c r="J32" t="n">
-        <v>-18.77109928117151</v>
+        <v>11.88714285714286</v>
       </c>
       <c r="K32" t="n">
-        <v>9.855714285714289</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>11</v>
+        <v>5.992307692307699</v>
       </c>
       <c r="M32" t="n">
-        <v>7.281818181818173</v>
+        <v>7</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6.242857142857157</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6.375714285714285</v>
       </c>
     </row>
     <row r="33">
@@ -1902,42 +2036,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>APPVTARISVTASSAGRGTVVVENDPDSTPEAVEDALLALLHAAGIDASRETTAAIVAEARAPSGGSATRDITTAPLP</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>89.84083664093605</v>
       </c>
       <c r="E33" t="n">
-        <v>89.34664875385246</v>
+        <v>90.36666384830448</v>
       </c>
       <c r="F33" t="n">
-        <v>89.89354550079551</v>
+        <v>75.81877777777777</v>
       </c>
       <c r="G33" t="n">
-        <v>75.12733333333334</v>
+        <v>0.83</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="I33" t="n">
-        <v>0.63</v>
+        <v>-20.80979794980789</v>
       </c>
       <c r="J33" t="n">
-        <v>-19.49037916109953</v>
+        <v>11.82571428571429</v>
       </c>
       <c r="K33" t="n">
-        <v>10.55571428571429</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>12</v>
+        <v>6.323076923076917</v>
       </c>
       <c r="M33" t="n">
-        <v>8.425000000000002</v>
+        <v>5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4.521428571428571</v>
       </c>
     </row>
     <row r="34">
@@ -1947,42 +2085,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>AILERRVERDADGRRYAVVTLTADPASSMAAAVAAAEAALRAAGAGEGAGALAAAMAAAAAGPAGGGSASARFDLDTA</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>92.35013689088689</v>
       </c>
       <c r="E34" t="n">
-        <v>93.37856328719292</v>
+        <v>92.79767569985567</v>
       </c>
       <c r="F34" t="n">
-        <v>93.70226657601658</v>
+        <v>81.16166666666668</v>
       </c>
       <c r="G34" t="n">
-        <v>84.96227777777777</v>
+        <v>0.86</v>
       </c>
       <c r="H34" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="I34" t="n">
-        <v>0.75</v>
+        <v>-26.96215654623155</v>
       </c>
       <c r="J34" t="n">
-        <v>-20.40499918586215</v>
+        <v>17.72714285714286</v>
       </c>
       <c r="K34" t="n">
-        <v>11.06714285714286</v>
+        <v>19</v>
       </c>
       <c r="L34" t="n">
-        <v>12</v>
+        <v>4.689473684210522</v>
       </c>
       <c r="M34" t="n">
-        <v>5.441666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.536363636363634</v>
+      </c>
+      <c r="O34" t="n">
+        <v>10.28714285714286</v>
       </c>
     </row>
     <row r="35">
@@ -1992,42 +2134,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ALGRVELLRRTDTEVTVHVELRYDPATSFADAVAALAAALVAAGASPAGAEAAAARVAAAARATPGGGSASADLTLAR</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>89.55105761830761</v>
       </c>
       <c r="E35" t="n">
-        <v>95.3080651755652</v>
+        <v>90.3545377008177</v>
       </c>
       <c r="F35" t="n">
-        <v>95.61263605838606</v>
+        <v>69.46405555555556</v>
       </c>
       <c r="G35" t="n">
-        <v>87.38922222222222</v>
+        <v>0.85</v>
       </c>
       <c r="H35" t="n">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="I35" t="n">
-        <v>0.83</v>
+        <v>-21.66367719040219</v>
       </c>
       <c r="J35" t="n">
-        <v>-23.53937794612795</v>
+        <v>12.70857142857143</v>
       </c>
       <c r="K35" t="n">
-        <v>14.00857142857143</v>
+        <v>14</v>
       </c>
       <c r="L35" t="n">
-        <v>15</v>
+        <v>6.457142857142872</v>
       </c>
       <c r="M35" t="n">
-        <v>4.626666666666665</v>
+        <v>9</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.177777777777781</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8.205714285714285</v>
       </c>
     </row>
     <row r="36">
@@ -2037,42 +2183,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>ALGSVRLLERGASSVTVHVDLRYDATTSMADAVAALAAALVAAGASPADAESAAAAVAAAAAAAPGGGSASATLTLAR</t>
-        </is>
+      <c r="D36" t="n">
+        <v>94.98893881050364</v>
       </c>
       <c r="E36" t="n">
-        <v>93.61703043664154</v>
+        <v>95.48669927757427</v>
       </c>
       <c r="F36" t="n">
-        <v>94.14796750471751</v>
+        <v>82.04716666666667</v>
       </c>
       <c r="G36" t="n">
-        <v>79.81266666666666</v>
+        <v>0.88</v>
       </c>
       <c r="H36" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7</v>
+        <v>-24.18889388105036</v>
       </c>
       <c r="J36" t="n">
-        <v>-22.82598875794987</v>
+        <v>14.69</v>
       </c>
       <c r="K36" t="n">
-        <v>13.46428571428572</v>
+        <v>16</v>
       </c>
       <c r="L36" t="n">
-        <v>15</v>
+        <v>5.731249999999989</v>
       </c>
       <c r="M36" t="n">
-        <v>7.166666666666644</v>
+        <v>11</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.081818181818179</v>
+      </c>
+      <c r="O36" t="n">
+        <v>10.20142857142857</v>
       </c>
     </row>
     <row r="37">
@@ -2082,42 +2232,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>AAGRVELLERTATSVTVRVELRYDPTTSLADAVAALAAALVAAGASPEGAAAAAAAVAAAARAEPGGGSASGVLTLAR</t>
-        </is>
+      <c r="D37" t="n">
+        <v>93.352027087453</v>
       </c>
       <c r="E37" t="n">
-        <v>91.21760202554648</v>
+        <v>93.87906018056016</v>
       </c>
       <c r="F37" t="n">
-        <v>91.82351193251192</v>
+        <v>79.64916666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>75.46394444444445</v>
+        <v>0.87</v>
       </c>
       <c r="H37" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="I37" t="n">
-        <v>0.67</v>
+        <v>-24.75663128017387</v>
       </c>
       <c r="J37" t="n">
-        <v>-24.42604591684036</v>
+        <v>15.42142857142857</v>
       </c>
       <c r="K37" t="n">
-        <v>15.30428571428571</v>
+        <v>17</v>
       </c>
       <c r="L37" t="n">
-        <v>17</v>
+        <v>6.500000000000013</v>
       </c>
       <c r="M37" t="n">
-        <v>6.982352941176473</v>
+        <v>11</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.881818181818176</v>
+      </c>
+      <c r="O37" t="n">
+        <v>10.07571428571429</v>
       </c>
     </row>
     <row r="38">
@@ -2127,42 +2281,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38" t="n">
         <v>4</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>ARGRVELLERGPSSVTVHVELEYDPATSPAAAEAALAAALVAAGASPADAAAAAAAVAAAARARPGGGSASADLTLAR</t>
-        </is>
+      <c r="D38" t="n">
+        <v>92.7747521244188</v>
       </c>
       <c r="E38" t="n">
-        <v>90.35210201218534</v>
+        <v>93.33192207792209</v>
       </c>
       <c r="F38" t="n">
-        <v>90.96570636308137</v>
+        <v>78.28833333333334</v>
       </c>
       <c r="G38" t="n">
-        <v>74.3983888888889</v>
+        <v>0.87</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="I38" t="n">
-        <v>0.61</v>
+        <v>-19.20604664101331</v>
       </c>
       <c r="J38" t="n">
-        <v>-25.77806734407568</v>
+        <v>9.928571428571429</v>
       </c>
       <c r="K38" t="n">
-        <v>16.74285714285714</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>19</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="M38" t="n">
-        <v>8.315789473684223</v>
+        <v>5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.219999999999994</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4.555714285714286</v>
       </c>
     </row>
     <row r="39">
@@ -2172,42 +2330,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>90.76836751108974</v>
+      </c>
+      <c r="E39" t="n">
+        <v>91.29017010767009</v>
+      </c>
+      <c r="F39" t="n">
+        <v>77.2015</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-19.14826532253755</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10.07142857142857</v>
+      </c>
+      <c r="K39" t="n">
+        <v>11</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.909090909090909</v>
+      </c>
+      <c r="M39" t="n">
         <v>7</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>AAGSVRLLERTASSVTVHVDLRYDPATSFADAVAALAAALVAAGASAAGAAAAAAAVAAAARAAPGGGSASATLTLPL</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>93.88499706946004</v>
-      </c>
-      <c r="F39" t="n">
-        <v>94.30246063196064</v>
-      </c>
-      <c r="G39" t="n">
-        <v>83.03094444444444</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J39" t="n">
-        <v>-20.13707113551743</v>
-      </c>
-      <c r="K39" t="n">
-        <v>10.74857142857143</v>
-      </c>
-      <c r="L39" t="n">
-        <v>12</v>
-      </c>
-      <c r="M39" t="n">
-        <v>7.300000000000011</v>
+      <c r="N39" t="n">
+        <v>5.957142857142856</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6.404285714285715</v>
       </c>
     </row>
     <row r="40">
@@ -2217,42 +2379,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ALAERREIAGATIELYTEDGKATLVVRNGPDARRADVVAAVHEILSRYMGKDEATARALVDAAERGGGSASLTADLKKLV</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>89.34475922362959</v>
       </c>
       <c r="E40" t="n">
-        <v>95.05403785270954</v>
+        <v>90.11098714248716</v>
       </c>
       <c r="F40" t="n">
-        <v>95.37341427218615</v>
+        <v>69.42283333333334</v>
       </c>
       <c r="G40" t="n">
-        <v>86.53733333333332</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8</v>
+        <v>-26.4130473509344</v>
       </c>
       <c r="J40" t="n">
-        <v>-28.20968949955667</v>
+        <v>17.47857142857143</v>
       </c>
       <c r="K40" t="n">
-        <v>18.70428571428572</v>
+        <v>20</v>
       </c>
       <c r="L40" t="n">
-        <v>20</v>
+        <v>8.824999999999978</v>
       </c>
       <c r="M40" t="n">
-        <v>4.535000000000002</v>
+        <v>13</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8.369230769230766</v>
+      </c>
+      <c r="O40" t="n">
+        <v>11.44571428571429</v>
       </c>
     </row>
     <row r="41">
@@ -2262,42 +2428,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41" t="n">
         <v>7</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ALAERVEIDGATIELSVEDGRATLVVTNGPDAKPEDVVAAVHRLLSRHMGKDRATAEALVAAARYGGGSASLTGPVLREV</t>
-        </is>
+      <c r="D41" t="n">
+        <v>93.30391164733756</v>
       </c>
       <c r="E41" t="n">
-        <v>92.26422185277907</v>
+        <v>93.77070953120952</v>
       </c>
       <c r="F41" t="n">
-        <v>92.8907739222583</v>
+        <v>81.16716666666666</v>
       </c>
       <c r="G41" t="n">
-        <v>75.55616666666667</v>
+        <v>0.84</v>
       </c>
       <c r="H41" t="n">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="I41" t="n">
-        <v>0.66</v>
+        <v>-24.57181973616233</v>
       </c>
       <c r="J41" t="n">
-        <v>-23.61070789956362</v>
+        <v>15.24142857142857</v>
       </c>
       <c r="K41" t="n">
-        <v>14.38428571428572</v>
+        <v>17</v>
       </c>
       <c r="L41" t="n">
-        <v>16</v>
+        <v>7.241176470588243</v>
       </c>
       <c r="M41" t="n">
-        <v>7.068749999999994</v>
+        <v>8</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="O41" t="n">
+        <v>7.385714285714286</v>
       </c>
     </row>
     <row r="42">
@@ -2307,42 +2477,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>SGGATFTARLDPETGKLTLVATYAPDPTREAAIEAAMEAMGRHDEEARRVAEEAVARTEPVNGGGSATITVELPP</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>90.38421377799156</v>
       </c>
       <c r="E42" t="n">
-        <v>91.75863145188146</v>
+        <v>91.06639935064936</v>
       </c>
       <c r="F42" t="n">
-        <v>92.46578337662338</v>
+        <v>72.64738888888888</v>
       </c>
       <c r="G42" t="n">
-        <v>74.07983333333333</v>
+        <v>0.84</v>
       </c>
       <c r="H42" t="n">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7</v>
+        <v>-24.7512785206563</v>
       </c>
       <c r="J42" t="n">
-        <v>-15.47729171661672</v>
+        <v>15.71285714285714</v>
       </c>
       <c r="K42" t="n">
-        <v>6.301428571428571</v>
+        <v>18</v>
       </c>
       <c r="L42" t="n">
-        <v>7</v>
+        <v>8.894444444444439</v>
       </c>
       <c r="M42" t="n">
-        <v>6.98571428571429</v>
+        <v>13</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.938461538461542</v>
+      </c>
+      <c r="O42" t="n">
+        <v>11.34</v>
       </c>
     </row>
     <row r="43">
@@ -2355,39 +2529,43 @@
         <v>38</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>AAGHRLEVRYDEASGTYTVSGTLTNNPDVSREAAIAAVAGALAAATGNRAAAEAFARELVDAAAGGGGSASLTRTFGA</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="D43" t="n">
+        <v>95.69904141057845</v>
       </c>
       <c r="E43" t="n">
-        <v>93.50261446029964</v>
+        <v>96.1964041144041</v>
       </c>
       <c r="F43" t="n">
-        <v>94.004620999371</v>
+        <v>82.76761111111112</v>
       </c>
       <c r="G43" t="n">
-        <v>80.45044444444444</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="I43" t="n">
-        <v>0.67</v>
+        <v>-21.59418985534356</v>
       </c>
       <c r="J43" t="n">
-        <v>-17.44454716031568</v>
+        <v>12.02428571428571</v>
       </c>
       <c r="K43" t="n">
-        <v>8.094285714285714</v>
+        <v>13</v>
       </c>
       <c r="L43" t="n">
-        <v>9</v>
+        <v>5.253846153846159</v>
       </c>
       <c r="M43" t="n">
-        <v>7.044444444444442</v>
+        <v>10</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.819999999999993</v>
+      </c>
+      <c r="O43" t="n">
+        <v>9.311428571428571</v>
       </c>
     </row>
     <row r="44">
@@ -2397,42 +2575,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>AAGHRLTVTRDEASGTWTASGTLTNNPAVSAAAAKAAVADALAAATGNVEAAKAFAEELVDAARGGGGSASLTRTFPA</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>90.41973890135928</v>
       </c>
       <c r="E44" t="n">
-        <v>91.52879398036804</v>
+        <v>90.92913056850558</v>
       </c>
       <c r="F44" t="n">
-        <v>92.14302537277536</v>
+        <v>77.17555555555555</v>
       </c>
       <c r="G44" t="n">
-        <v>75.55877777777778</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="I44" t="n">
-        <v>0.64</v>
+        <v>-26.17911674727879</v>
       </c>
       <c r="J44" t="n">
-        <v>-18.22287939803681</v>
+        <v>17.13714285714286</v>
       </c>
       <c r="K44" t="n">
-        <v>9.07</v>
+        <v>19</v>
       </c>
       <c r="L44" t="n">
-        <v>10</v>
+        <v>6.863157894736835</v>
       </c>
       <c r="M44" t="n">
-        <v>6.510000000000002</v>
+        <v>13</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6.823076923076926</v>
+      </c>
+      <c r="O44" t="n">
+        <v>11.73285714285714</v>
       </c>
     </row>
     <row r="45">
@@ -2442,42 +2624,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>AAGHRLEVRRDAAAGTYTVSATLTHNPDVSLDAVIAAVADAVAAATGNEAAARAFAEELATAAAGPGGSASLTRTFPA</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89.45277568898867</v>
       </c>
       <c r="E45" t="n">
-        <v>90.10915447686745</v>
+        <v>89.99705552318051</v>
       </c>
       <c r="F45" t="n">
-        <v>90.58602152939652</v>
+        <v>75.3015</v>
       </c>
       <c r="G45" t="n">
-        <v>77.71061111111111</v>
+        <v>0.78</v>
       </c>
       <c r="H45" t="n">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7</v>
+        <v>-28.99384899747029</v>
       </c>
       <c r="J45" t="n">
-        <v>-17.24091544768675</v>
+        <v>20.04857142857143</v>
       </c>
       <c r="K45" t="n">
-        <v>8.23</v>
+        <v>23</v>
       </c>
       <c r="L45" t="n">
-        <v>9</v>
+        <v>8.982608695652161</v>
       </c>
       <c r="M45" t="n">
-        <v>5.988888888888886</v>
+        <v>13</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.384615384615385</v>
+      </c>
+      <c r="O45" t="n">
+        <v>11.44285714285714</v>
       </c>
     </row>
     <row r="46">
@@ -2487,42 +2673,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>AVQVGPHHRITIDKAAGTATLEVRAAPDESPEAVIAALRAAAAAEGVALDDRVPEVVEAALGERGGGSATMTINVSA</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>90.30245445192666</v>
       </c>
       <c r="E46" t="n">
-        <v>89.51012548701298</v>
+        <v>90.77007235819735</v>
       </c>
       <c r="F46" t="n">
-        <v>90.16612821161524</v>
+        <v>78.1443888888889</v>
       </c>
       <c r="G46" t="n">
-        <v>72.67272222222222</v>
+        <v>0.83</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="I46" t="n">
-        <v>0.65</v>
+        <v>-25.47881687376409</v>
       </c>
       <c r="J46" t="n">
-        <v>-20.69815540584415</v>
+        <v>16.44857142857143</v>
       </c>
       <c r="K46" t="n">
-        <v>11.74714285714286</v>
+        <v>18</v>
       </c>
       <c r="L46" t="n">
-        <v>13</v>
+        <v>6.033333333333341</v>
       </c>
       <c r="M46" t="n">
-        <v>6.746153846153841</v>
+        <v>11</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5.83636363636364</v>
+      </c>
+      <c r="O46" t="n">
+        <v>10.08285714285714</v>
       </c>
     </row>
     <row r="47">
@@ -2532,42 +2722,46 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>AVTVSPYHTITIDKAAGTATLDVRYAPDESPEAVIAAYQAAAAAQGVRLGDQVPGVVAAARGPAGGGSATATVAVTP</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>90.94280324408102</v>
       </c>
       <c r="E47" t="n">
-        <v>93.17837656024533</v>
+        <v>91.44958627483626</v>
       </c>
       <c r="F47" t="n">
-        <v>93.86413798467046</v>
+        <v>77.76644444444445</v>
       </c>
       <c r="G47" t="n">
-        <v>75.57716666666667</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="I47" t="n">
-        <v>0.61</v>
+        <v>-26.82285175297953</v>
       </c>
       <c r="J47" t="n">
-        <v>-16.4592662274531</v>
+        <v>17.72857142857143</v>
       </c>
       <c r="K47" t="n">
-        <v>7.141428571428572</v>
+        <v>20</v>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>7.95</v>
       </c>
       <c r="M47" t="n">
-        <v>7.512500000000003</v>
+        <v>12</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.833333333333324</v>
+      </c>
+      <c r="O47" t="n">
+        <v>10.65714285714286</v>
       </c>
     </row>
     <row r="48">
@@ -2577,42 +2771,46 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>APFRRGPSGLISGRAEEGRVEFRVTNAPDPTPEQAVAELLAMAREMGAAVTEADAAAVVEAARWGGGGSASRTFPHAP</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>90.78258300735408</v>
       </c>
       <c r="E48" t="n">
-        <v>93.05203841323284</v>
+        <v>91.29324028679652</v>
       </c>
       <c r="F48" t="n">
-        <v>93.62331339493842</v>
+        <v>77.16505555555555</v>
       </c>
       <c r="G48" t="n">
-        <v>78.19888888888887</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="I48" t="n">
-        <v>0.68</v>
+        <v>-22.91540115787826</v>
       </c>
       <c r="J48" t="n">
-        <v>-19.15520384132329</v>
+        <v>13.83714285714286</v>
       </c>
       <c r="K48" t="n">
-        <v>9.85</v>
+        <v>15</v>
       </c>
       <c r="L48" t="n">
-        <v>11</v>
+        <v>5.426666666666673</v>
       </c>
       <c r="M48" t="n">
-        <v>7.318181818181808</v>
+        <v>9</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5.344444444444447</v>
+      </c>
+      <c r="O48" t="n">
+        <v>8.312857142857142</v>
       </c>
     </row>
     <row r="49">
@@ -2622,42 +2820,46 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>APFVRGASGLISGRAHDGYVEFRVTWAPDPTPEQAVAELLAMARAAGAAVTEADARAVVEAARWGGGGSAERRFPHRP</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>92.83702378779186</v>
       </c>
       <c r="E49" t="n">
-        <v>91.49719504124134</v>
+        <v>93.16710384650072</v>
       </c>
       <c r="F49" t="n">
-        <v>92.23705510693011</v>
+        <v>84.03488888888889</v>
       </c>
       <c r="G49" t="n">
-        <v>72.26083333333334</v>
+        <v>0.85</v>
       </c>
       <c r="H49" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="I49" t="n">
-        <v>0.61</v>
+        <v>-21.3779880930649</v>
       </c>
       <c r="J49" t="n">
-        <v>-21.44400521840985</v>
+        <v>12.09428571428571</v>
       </c>
       <c r="K49" t="n">
-        <v>12.29428571428571</v>
+        <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>14</v>
+        <v>4.876923076923076</v>
       </c>
       <c r="M49" t="n">
-        <v>8.528571428571436</v>
+        <v>8</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="O49" t="n">
+        <v>7.528571428571428</v>
       </c>
     </row>
     <row r="50">
@@ -2667,42 +2869,46 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>SAPAQITVTADPEAGAATVALTYSPGTSLEDVVARLAAALAAALGLPPEAAEAAARELAEAARWGPPAGSATRTFARAA</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D50" t="n">
+        <v>95.17716923591314</v>
       </c>
       <c r="E50" t="n">
-        <v>89.10341445377118</v>
+        <v>95.63441405921785</v>
       </c>
       <c r="F50" t="n">
-        <v>89.77608842037009</v>
+        <v>83.1363888888889</v>
       </c>
       <c r="G50" t="n">
-        <v>71.38966666666666</v>
+        <v>0.88</v>
       </c>
       <c r="H50" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="I50" t="n">
-        <v>0.68</v>
+        <v>-24.35057406644846</v>
       </c>
       <c r="J50" t="n">
-        <v>-17.86891287394855</v>
+        <v>14.83285714285714</v>
       </c>
       <c r="K50" t="n">
-        <v>8.95857142857143</v>
+        <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>10</v>
+        <v>5.106250000000003</v>
       </c>
       <c r="M50" t="n">
-        <v>7.289999999999987</v>
+        <v>9</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.133333333333338</v>
+      </c>
+      <c r="O50" t="n">
+        <v>8.468571428571428</v>
       </c>
     </row>
     <row r="51">
@@ -2712,42 +2918,46 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>SAPARIDVRYDPEAGSATVSLTYSPGESFEDVVARLARALAEALGLPPEEAERLAREIADAARSGPPAGSATRTFARRP</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>91.9412808749516</v>
       </c>
       <c r="E51" t="n">
-        <v>89.13914459930314</v>
+        <v>92.33627044404258</v>
       </c>
       <c r="F51" t="n">
-        <v>89.80293911995177</v>
+        <v>81.53988888888888</v>
       </c>
       <c r="G51" t="n">
-        <v>71.65922222222223</v>
+        <v>0.83</v>
       </c>
       <c r="H51" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="I51" t="n">
-        <v>0.71</v>
+        <v>-23.65127094463801</v>
       </c>
       <c r="J51" t="n">
-        <v>-17.1396287456446</v>
+        <v>14.45714285714286</v>
       </c>
       <c r="K51" t="n">
-        <v>8.225714285714286</v>
+        <v>16</v>
       </c>
       <c r="L51" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="M51" t="n">
         <v>9</v>
       </c>
-      <c r="M51" t="n">
-        <v>6.022222222222215</v>
+      <c r="N51" t="n">
+        <v>5.888888888888902</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8.242857142857142</v>
       </c>
     </row>
     <row r="52">
@@ -2757,42 +2967,46 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="n">
         <v>9</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>SAPARIEVRYDPEAGAASVRLTNAPGTSLEDVVARLAELLARLLGLPPEAARAAAREIADAARSGPPAGSASRTFARAA</t>
-        </is>
+      <c r="D52" t="n">
+        <v>94.33052213775385</v>
       </c>
       <c r="E52" t="n">
-        <v>91.43202153503675</v>
+        <v>94.95289639614955</v>
       </c>
       <c r="F52" t="n">
-        <v>91.64587256379345</v>
+        <v>77.94133333333332</v>
       </c>
       <c r="G52" t="n">
-        <v>85.80061111111111</v>
+        <v>0.86</v>
       </c>
       <c r="H52" t="n">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="I52" t="n">
-        <v>0.82</v>
+        <v>-20.98305221377539</v>
       </c>
       <c r="J52" t="n">
-        <v>-21.37463072493225</v>
+        <v>11.55</v>
       </c>
       <c r="K52" t="n">
-        <v>12.23142857142857</v>
+        <v>13</v>
       </c>
       <c r="L52" t="n">
-        <v>13</v>
+        <v>7.807692307692307</v>
       </c>
       <c r="M52" t="n">
-        <v>4.138461538461526</v>
+        <v>6</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6.683333333333337</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5.427142857142857</v>
       </c>
     </row>
     <row r="53">
@@ -2802,42 +3016,46 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" t="n">
         <v>5</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>ASPVDPRISVTSSGGRALSITVTNDPDTTREQAIAAVNAAAARYGARRVPGAAERLVAEAEKPEGGSATYTLTAADLA</t>
-        </is>
+      <c r="D53" t="n">
+        <v>90.91300704148172</v>
       </c>
       <c r="E53" t="n">
-        <v>91.43077361356066</v>
+        <v>91.50309942469808</v>
       </c>
       <c r="F53" t="n">
-        <v>91.5153631969882</v>
+        <v>75.964</v>
       </c>
       <c r="G53" t="n">
-        <v>89.23144444444445</v>
+        <v>0.82</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I53" t="n">
-        <v>0.79</v>
+        <v>-19.87558641843388</v>
       </c>
       <c r="J53" t="n">
-        <v>-26.01879164707035</v>
+        <v>10.78428571428571</v>
       </c>
       <c r="K53" t="n">
-        <v>16.87571428571428</v>
+        <v>12</v>
       </c>
       <c r="L53" t="n">
-        <v>18</v>
+        <v>7.091666666666678</v>
       </c>
       <c r="M53" t="n">
-        <v>4.372222222222224</v>
+        <v>8</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7</v>
+      </c>
+      <c r="O53" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="54">
@@ -2850,39 +3068,43 @@
         <v>64</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>APVGADGVGAEAAADGTTTLRVLYDPDRTEEEAVAALAAAVAPHGPDWATLPERLRALVREARGGGGEAEGTVPAGP</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>92.7352020698052</v>
       </c>
       <c r="E54" t="n">
-        <v>91.0813278860029</v>
+        <v>93.1301276915725</v>
       </c>
       <c r="F54" t="n">
-        <v>91.7235917430333</v>
+        <v>82.59877777777778</v>
       </c>
       <c r="G54" t="n">
-        <v>74.59655555555555</v>
+        <v>0.84</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I54" t="n">
-        <v>0.65</v>
+        <v>-20.23780592126624</v>
       </c>
       <c r="J54" t="n">
-        <v>-11.78384707431458</v>
+        <v>10.96428571428572</v>
       </c>
       <c r="K54" t="n">
-        <v>2.675714285714286</v>
+        <v>12</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>6.041666666666657</v>
       </c>
       <c r="M54" t="n">
-        <v>7.566666666666663</v>
+        <v>8</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5.337499999999992</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7.390000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2895,39 +3117,43 @@
         <v>64</v>
       </c>
       <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>90.48401716269839</v>
+      </c>
+      <c r="E55" t="n">
+        <v>90.79813471449184</v>
+      </c>
+      <c r="F55" t="n">
+        <v>82.42166666666667</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-19.31697314484127</v>
+      </c>
+      <c r="J55" t="n">
+        <v>10.26857142857143</v>
+      </c>
+      <c r="K55" t="n">
+        <v>11</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.654545454545459</v>
+      </c>
+      <c r="M55" t="n">
         <v>9</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>APVGADGVGATAAADGTSTLTVLNDPTKTEEEMVDALLAALAPHGVDESTARAKLRELVEKARSGGGSATGTVPAGP</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>90.63540108225109</v>
-      </c>
-      <c r="F55" t="n">
-        <v>91.26707038848596</v>
-      </c>
-      <c r="G55" t="n">
-        <v>74.42255555555555</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="J55" t="n">
-        <v>-15.44068296536797</v>
-      </c>
-      <c r="K55" t="n">
-        <v>6.377142857142856</v>
-      </c>
-      <c r="L55" t="n">
-        <v>7</v>
-      </c>
-      <c r="M55" t="n">
-        <v>6.22857142857144</v>
+      <c r="N55" t="n">
+        <v>4.466666666666672</v>
+      </c>
+      <c r="O55" t="n">
+        <v>8.425714285714285</v>
       </c>
     </row>
     <row r="56">
@@ -2937,42 +3163,46 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>92.11809080477754</v>
+      </c>
+      <c r="E56" t="n">
+        <v>92.86849629329004</v>
+      </c>
+      <c r="F56" t="n">
+        <v>72.10727777777777</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-22.24323765190633</v>
+      </c>
+      <c r="J56" t="n">
+        <v>13.03142857142857</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15</v>
+      </c>
+      <c r="L56" t="n">
+        <v>9.186666666666664</v>
+      </c>
+      <c r="M56" t="n">
         <v>8</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>AALSSWSTTWSGDTGTVSGSSVYDPDRTLEEAIAEIAGLLRDDGGIADAEEIARRMAEETRYGGGSATLTVTARRV</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>91.3453404387455</v>
-      </c>
-      <c r="F56" t="n">
-        <v>92.13270694729248</v>
-      </c>
-      <c r="G56" t="n">
-        <v>71.39872222222222</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="J56" t="n">
-        <v>-19.48739118673169</v>
-      </c>
-      <c r="K56" t="n">
-        <v>10.35285714285714</v>
-      </c>
-      <c r="L56" t="n">
-        <v>12</v>
-      </c>
-      <c r="M56" t="n">
-        <v>9.608333333333327</v>
+      <c r="N56" t="n">
+        <v>9.049999999999995</v>
+      </c>
+      <c r="O56" t="n">
+        <v>6.965714285714286</v>
       </c>
     </row>
     <row r="57">
@@ -2985,39 +3215,43 @@
         <v>66</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>APLVSVTRTEASGDRVSLTVTMTHAPTPTVAEARAAIAAAVRAAGGGAPDPAAVDALIAATRGAGAPGGSASLDMTVAAR</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>92.80209217823676</v>
       </c>
       <c r="E57" t="n">
-        <v>92.68592900172121</v>
+        <v>93.44920813492062</v>
       </c>
       <c r="F57" t="n">
-        <v>92.98941383928572</v>
+        <v>75.54566666666666</v>
       </c>
       <c r="G57" t="n">
-        <v>84.593</v>
+        <v>0.83</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="I57" t="n">
-        <v>0.72</v>
+        <v>-22.01449493210939</v>
       </c>
       <c r="J57" t="n">
-        <v>-23.30287861445783</v>
+        <v>12.73428571428572</v>
       </c>
       <c r="K57" t="n">
-        <v>14.03428571428571</v>
+        <v>14</v>
       </c>
       <c r="L57" t="n">
-        <v>16</v>
+        <v>6.328571428571422</v>
       </c>
       <c r="M57" t="n">
-        <v>8.600000000000009</v>
+        <v>6</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.600000000000004</v>
+      </c>
+      <c r="O57" t="n">
+        <v>5.52</v>
       </c>
     </row>
     <row r="58">
@@ -3030,39 +3264,43 @@
         <v>66</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>APLVRAERLEARGDRVSYRVRMEHAPDPTVAEARAAIEAAARAVGAGAVDPAAADALIAATRGSGAPGGRAEAEMTAPAR</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>91.25238452511346</v>
       </c>
       <c r="E58" t="n">
-        <v>93.91496954049964</v>
+        <v>91.8773051948052</v>
       </c>
       <c r="F58" t="n">
-        <v>94.56610381493506</v>
+        <v>74.58783333333332</v>
       </c>
       <c r="G58" t="n">
-        <v>76.55138888888889</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="I58" t="n">
-        <v>0.75</v>
+        <v>-19.7923813096542</v>
       </c>
       <c r="J58" t="n">
-        <v>-10.33149695404997</v>
+        <v>10.66714285714286</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9399999999999999</v>
+        <v>12</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>7.775000000000015</v>
       </c>
       <c r="M58" t="n">
-        <v>4.200000000000003</v>
+        <v>8</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.349999999999994</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7.160000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -3077,37 +3315,41 @@
       <c r="C59" t="n">
         <v>9</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>ADLVRATRRAAEGDRVSLTVELRYAPDPTVAEARAALEAAVRAAGGGAVDPAAADALIAAARGSGAPGGSATADMTVAAA</t>
-        </is>
+      <c r="D59" t="n">
+        <v>91.56055554686276</v>
       </c>
       <c r="E59" t="n">
-        <v>92.10587554112551</v>
+        <v>92.1627555465368</v>
       </c>
       <c r="F59" t="n">
-        <v>92.64608129058441</v>
+        <v>75.5018888888889</v>
       </c>
       <c r="G59" t="n">
-        <v>77.70038888888888</v>
+        <v>0.86</v>
       </c>
       <c r="H59" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="I59" t="n">
-        <v>0.73</v>
+        <v>-23.92319841182913</v>
       </c>
       <c r="J59" t="n">
-        <v>-24.28201612554113</v>
+        <v>14.76714285714286</v>
       </c>
       <c r="K59" t="n">
-        <v>15.07142857142857</v>
+        <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>17</v>
+        <v>5.393750000000011</v>
       </c>
       <c r="M59" t="n">
-        <v>7.941176470588236</v>
+        <v>9</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5.511111111111114</v>
+      </c>
+      <c r="O59" t="n">
+        <v>8.291428571428572</v>
       </c>
     </row>
     <row r="60">
@@ -3117,42 +3359,46 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>AMQITADAAATGDANTRSGTVTLTNAPDPTVAEAKAALTATLHAMGIEANPAQIDAIVSATAAAGGGSATATVSGKAVS</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>90.52719938628977</v>
       </c>
       <c r="E60" t="n">
-        <v>90.5886485719565</v>
+        <v>90.98520686327559</v>
       </c>
       <c r="F60" t="n">
-        <v>91.20635252616584</v>
+        <v>78.31366666666668</v>
       </c>
       <c r="G60" t="n">
-        <v>74.32244444444444</v>
+        <v>0.83</v>
       </c>
       <c r="H60" t="n">
-        <v>0.83</v>
+        <v>0.68</v>
       </c>
       <c r="I60" t="n">
-        <v>0.63</v>
+        <v>-25.08986279577184</v>
       </c>
       <c r="J60" t="n">
-        <v>-22.96743628576708</v>
+        <v>16.03714285714286</v>
       </c>
       <c r="K60" t="n">
-        <v>13.90857142857143</v>
+        <v>18</v>
       </c>
       <c r="L60" t="n">
-        <v>16</v>
+        <v>7.633333333333338</v>
       </c>
       <c r="M60" t="n">
-        <v>9.15</v>
+        <v>7</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7.314285714285712</v>
+      </c>
+      <c r="O60" t="n">
+        <v>6.268571428571429</v>
       </c>
     </row>
     <row r="61">
@@ -3162,42 +3408,46 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" t="n">
-        <v>8</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>SVVHHTKATVTADADGYTVVATWAPEPSLAAAEADLTAAAAAAGWTIPSAADAAAIAAAAAPGGAPAGSATRTFPAPP</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>92.9492221606307</v>
       </c>
       <c r="E61" t="n">
-        <v>91.2844139677195</v>
+        <v>93.41476435238459</v>
       </c>
       <c r="F61" t="n">
-        <v>91.92732732545232</v>
+        <v>80.68994444444444</v>
       </c>
       <c r="G61" t="n">
-        <v>74.56866666666667</v>
+        <v>0.87</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="I61" t="n">
-        <v>0.65</v>
+        <v>-26.04206507320593</v>
       </c>
       <c r="J61" t="n">
-        <v>-22.39558425391481</v>
+        <v>16.74714285714286</v>
       </c>
       <c r="K61" t="n">
-        <v>13.26714285714286</v>
+        <v>18</v>
       </c>
       <c r="L61" t="n">
-        <v>15</v>
+        <v>4.872222222222212</v>
       </c>
       <c r="M61" t="n">
-        <v>8.086666666666664</v>
+        <v>12</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.550000000000011</v>
+      </c>
+      <c r="O61" t="n">
+        <v>11.22</v>
       </c>
     </row>
     <row r="62">
@@ -3207,42 +3457,46 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>AERLVRARVTAEDRRRGEASVEVRNAPDPTPAAMRAALAAAMAAAGAAVSPAQVEAAVAAARAPEGGSAVLRGRLLPRP</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>93.0704171164912</v>
       </c>
       <c r="E62" t="n">
-        <v>90.01312397934045</v>
+        <v>93.5464993987494</v>
       </c>
       <c r="F62" t="n">
-        <v>90.49472995323944</v>
+        <v>80.69227777777779</v>
       </c>
       <c r="G62" t="n">
-        <v>77.33083333333333</v>
+        <v>0.84</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="I62" t="n">
-        <v>0.61</v>
+        <v>-22.15989885450626</v>
       </c>
       <c r="J62" t="n">
-        <v>-20.49702668364833</v>
+        <v>12.85285714285714</v>
       </c>
       <c r="K62" t="n">
-        <v>11.49571428571428</v>
+        <v>14</v>
       </c>
       <c r="L62" t="n">
-        <v>13</v>
+        <v>5.735714285714282</v>
       </c>
       <c r="M62" t="n">
-        <v>8.100000000000014</v>
+        <v>9</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5.133333333333338</v>
+      </c>
+      <c r="O62" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="63">
@@ -3252,42 +3506,46 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>ARQLVEARVTAEDRARGEVAVRVRNAPDPTPEAMRAAVAAALAAAGAAASPEQVAAAVAAARAPEGGEAVLRGRRVARP</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>92.54753731762064</v>
       </c>
       <c r="E63" t="n">
-        <v>90.38733227307922</v>
+        <v>92.96737422299924</v>
       </c>
       <c r="F63" t="n">
-        <v>90.94345881509489</v>
+        <v>81.63177777777777</v>
       </c>
       <c r="G63" t="n">
-        <v>75.74266666666666</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7</v>
+        <v>-20.81761087461921</v>
       </c>
       <c r="J63" t="n">
-        <v>-18.08444751302221</v>
+        <v>11.56285714285714</v>
       </c>
       <c r="K63" t="n">
-        <v>9.045714285714284</v>
+        <v>13</v>
       </c>
       <c r="L63" t="n">
-        <v>10</v>
+        <v>7.738461538461531</v>
       </c>
       <c r="M63" t="n">
-        <v>6.680000000000007</v>
+        <v>5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>6.919999999999993</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4.505714285714286</v>
       </c>
     </row>
     <row r="64">
@@ -3297,42 +3555,46 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>AAPPVRVSLARVRVEGDRVTVEVRNAPGNTREAEVAAVAALLAAAGYRPTREELEALVDAARAPEGGSARLVRRKADLAP</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>93.05239697236919</v>
       </c>
       <c r="E64" t="n">
-        <v>89.36414706444828</v>
+        <v>93.4898289072039</v>
       </c>
       <c r="F64" t="n">
-        <v>89.90208591269842</v>
+        <v>81.67916666666666</v>
       </c>
       <c r="G64" t="n">
-        <v>75.01911111111112</v>
+        <v>0.84</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="I64" t="n">
-        <v>0.68</v>
+        <v>-25.89238255437978</v>
       </c>
       <c r="J64" t="n">
-        <v>-17.88641470644482</v>
+        <v>16.58714285714286</v>
       </c>
       <c r="K64" t="n">
-        <v>8.949999999999999</v>
+        <v>18</v>
       </c>
       <c r="L64" t="n">
-        <v>10</v>
+        <v>5.494444444444424</v>
       </c>
       <c r="M64" t="n">
-        <v>7.35</v>
+        <v>12</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5.133333333333326</v>
+      </c>
+      <c r="O64" t="n">
+        <v>11.12</v>
       </c>
     </row>
     <row r="65">
@@ -3342,42 +3604,46 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>AAPARRVSLATVTVEGDRVTVDVRHAPGETPEAAVAAIAALLAAAGYRATRAELEALVAAARAPEGGSATLTRRRADLAP</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>89.02159250351842</v>
       </c>
       <c r="E65" t="n">
-        <v>91.36967295589284</v>
+        <v>89.69691871091869</v>
       </c>
       <c r="F65" t="n">
-        <v>92.04217527507214</v>
+        <v>71.4631111111111</v>
       </c>
       <c r="G65" t="n">
-        <v>73.43627777777778</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7</v>
+        <v>-25.03644496463756</v>
       </c>
       <c r="J65" t="n">
-        <v>-16.40982443844643</v>
+        <v>16.13428571428571</v>
       </c>
       <c r="K65" t="n">
-        <v>7.272857142857143</v>
+        <v>18</v>
       </c>
       <c r="L65" t="n">
-        <v>8</v>
+        <v>7.255555555555564</v>
       </c>
       <c r="M65" t="n">
-        <v>6.362499999999997</v>
+        <v>13</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.838461538461536</v>
+      </c>
+      <c r="O65" t="n">
+        <v>11.73</v>
       </c>
     </row>
     <row r="66">
@@ -3387,42 +3653,46 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>AHHGPARVEVREVDGRLFVYVENNPEATDAAARAAVQAAVLAAGGRPLTPAELAALVAAARSPTGAGGSAEREIAPAA</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>89.64934320398477</v>
       </c>
       <c r="E66" t="n">
-        <v>92.41233773805072</v>
+        <v>90.11401232413419</v>
       </c>
       <c r="F66" t="n">
-        <v>93.20309431771932</v>
+        <v>77.25816666666667</v>
       </c>
       <c r="G66" t="n">
-        <v>71.85266666666666</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="I66" t="n">
-        <v>0.61</v>
+        <v>-25.68207717754133</v>
       </c>
       <c r="J66" t="n">
-        <v>-15.4698052023765</v>
+        <v>16.71714285714286</v>
       </c>
       <c r="K66" t="n">
-        <v>6.228571428571429</v>
+        <v>19</v>
       </c>
       <c r="L66" t="n">
-        <v>7</v>
+        <v>8.410526315789472</v>
       </c>
       <c r="M66" t="n">
-        <v>7.714285714285714</v>
+        <v>12</v>
+      </c>
+      <c r="N66" t="n">
+        <v>8.025000000000006</v>
+      </c>
+      <c r="O66" t="n">
+        <v>10.62428571428571</v>
       </c>
     </row>
     <row r="67">
@@ -3432,42 +3702,46 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>APHGAASVEVREVDGKLYVTVTNNSAATNAAARAEVQAAVLAAGGRALSPAELDAIVNAARSSTGNGGSATVEIERAE</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>90.75619567447278</v>
       </c>
       <c r="E67" t="n">
-        <v>93.06124113266704</v>
+        <v>91.48618217893218</v>
       </c>
       <c r="F67" t="n">
-        <v>93.54581237281238</v>
+        <v>71.28988888888888</v>
       </c>
       <c r="G67" t="n">
-        <v>80.46238888888888</v>
+        <v>0.84</v>
       </c>
       <c r="H67" t="n">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="I67" t="n">
-        <v>0.66</v>
+        <v>-24.05990528173299</v>
       </c>
       <c r="J67" t="n">
-        <v>-22.52755268469528</v>
+        <v>14.98428571428572</v>
       </c>
       <c r="K67" t="n">
-        <v>13.22142857142857</v>
+        <v>17</v>
       </c>
       <c r="L67" t="n">
-        <v>15</v>
+        <v>8.299999999999995</v>
       </c>
       <c r="M67" t="n">
-        <v>8.300000000000008</v>
+        <v>11</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8.463636363636356</v>
+      </c>
+      <c r="O67" t="n">
+        <v>9.670000000000002</v>
       </c>
     </row>
     <row r="68">
@@ -3477,42 +3751,46 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>SDLELARKLVRVTASGDSATVELTNAPEPTKEDVIRALRELMPEGFTPRDEAAEALVDEAASAENGGSATRTLTAADAAA</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>91.94999996522888</v>
       </c>
       <c r="E68" t="n">
-        <v>90.20745678819172</v>
+        <v>92.70066246392496</v>
       </c>
       <c r="F68" t="n">
-        <v>90.52570933441559</v>
+        <v>71.93233333333335</v>
       </c>
       <c r="G68" t="n">
-        <v>81.72072222222222</v>
+        <v>0.85</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="I68" t="n">
-        <v>0.72</v>
+        <v>-18.31499999652289</v>
       </c>
       <c r="J68" t="n">
-        <v>-32.2493171073906</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>23.22857142857143</v>
+        <v>10</v>
       </c>
       <c r="L68" t="n">
-        <v>26</v>
+        <v>6.160000000000002</v>
       </c>
       <c r="M68" t="n">
-        <v>7.461538461538462</v>
+        <v>3</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6.166666666666676</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2.735714285714285</v>
       </c>
     </row>
     <row r="69">
@@ -3522,42 +3800,46 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>SDLAEAERLVRVEASGDSATVELRNAPTPTKEDMKAALRRLMPEGFTLRDDAADALVDAARSAEGGGSATRRLTAADAAP</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D69" t="n">
+        <v>90.44463169587866</v>
       </c>
       <c r="E69" t="n">
-        <v>89.87493320468019</v>
+        <v>90.96860083200906</v>
       </c>
       <c r="F69" t="n">
-        <v>90.24026194985569</v>
+        <v>76.64677777777779</v>
       </c>
       <c r="G69" t="n">
-        <v>80.13283333333334</v>
+        <v>0.82</v>
       </c>
       <c r="H69" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="I69" t="n">
-        <v>0.6899999999999999</v>
+        <v>-19.04017745530215</v>
       </c>
       <c r="J69" t="n">
-        <v>-24.1089218918966</v>
+        <v>9.995714285714286</v>
       </c>
       <c r="K69" t="n">
-        <v>15.12142857142857</v>
+        <v>11</v>
       </c>
       <c r="L69" t="n">
-        <v>17</v>
+        <v>6.390909090909087</v>
       </c>
       <c r="M69" t="n">
-        <v>7.735294117647045</v>
+        <v>7</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.557142857142854</v>
+      </c>
+      <c r="O69" t="n">
+        <v>6.344285714285714</v>
       </c>
     </row>
     <row r="70">
@@ -3567,42 +3849,46 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>90.64335524112376</v>
+      </c>
+      <c r="E70" t="n">
+        <v>91.07531762219264</v>
+      </c>
+      <c r="F70" t="n">
+        <v>79.41233333333334</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-16.44004980982666</v>
+      </c>
+      <c r="J70" t="n">
+        <v>7.375714285714286</v>
+      </c>
+      <c r="K70" t="n">
+        <v>8</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.462499999999992</v>
+      </c>
+      <c r="M70" t="n">
         <v>3</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>ASAEALVTVTYDAAAGTRWLTVTHAPDPTREDVVEVILEKMRAAGVTNATREDAERIARAAEEGGGSATLNLDTEA</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>94.6393957477122</v>
-      </c>
-      <c r="F70" t="n">
-        <v>94.86582803599909</v>
-      </c>
-      <c r="G70" t="n">
-        <v>88.9031111111111</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-29.34536814619979</v>
-      </c>
-      <c r="K70" t="n">
-        <v>19.88142857142857</v>
-      </c>
-      <c r="L70" t="n">
-        <v>21</v>
-      </c>
-      <c r="M70" t="n">
-        <v>3.728571428571426</v>
+      <c r="N70" t="n">
+        <v>5.699999999999998</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2.755714285714286</v>
       </c>
     </row>
     <row r="71">
@@ -3612,42 +3898,46 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>93.53353156337334</v>
+      </c>
+      <c r="E71" t="n">
+        <v>94.15354377420826</v>
+      </c>
+      <c r="F71" t="n">
+        <v>77.82655555555556</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-17.46049601348019</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8.107142857142858</v>
+      </c>
+      <c r="K71" t="n">
         <v>9</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>ASAEDLVTVTYDAAAGKTWMTVTHAPDPTLEDVIKVILEKMKEAGVTNVTEEDARRIADAARYGGGSATIDLTTEA</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>92.81420293806052</v>
-      </c>
-      <c r="F71" t="n">
-        <v>93.18030963298396</v>
-      </c>
-      <c r="G71" t="n">
-        <v>83.53950000000002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J71" t="n">
-        <v>-31.43427743666319</v>
-      </c>
-      <c r="K71" t="n">
-        <v>22.15285714285714</v>
-      </c>
       <c r="L71" t="n">
-        <v>24</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="M71" t="n">
-        <v>5.387500000000007</v>
+        <v>4</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.674999999999997</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3.618571428571429</v>
       </c>
     </row>
     <row r="72">
@@ -3657,42 +3947,46 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>ADPERLGARAEFTQGASTTSGTMELVYSPDVTPEEAVERLLALAREQGATQVKREDAEAVVAEARGPGGRATRTLSYGP</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>93.0390548949043</v>
       </c>
       <c r="E72" t="n">
-        <v>91.1288161932918</v>
+        <v>93.15994862012988</v>
       </c>
       <c r="F72" t="n">
-        <v>91.77811723016788</v>
+        <v>89.81522222222223</v>
       </c>
       <c r="G72" t="n">
-        <v>74.03055555555555</v>
+        <v>0.88</v>
       </c>
       <c r="H72" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="I72" t="n">
-        <v>0.68</v>
+        <v>-24.60104834663328</v>
       </c>
       <c r="J72" t="n">
-        <v>-16.18431019075775</v>
+        <v>15.29714285714286</v>
       </c>
       <c r="K72" t="n">
-        <v>7.071428571428571</v>
+        <v>16</v>
       </c>
       <c r="L72" t="n">
-        <v>8</v>
+        <v>3.075000000000003</v>
       </c>
       <c r="M72" t="n">
-        <v>8.125</v>
+        <v>11</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.090909090909091</v>
+      </c>
+      <c r="O72" t="n">
+        <v>10.51428571428571</v>
       </c>
     </row>
     <row r="73">
@@ -3702,42 +3996,46 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C73" t="n">
         <v>9</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>AVEINGARAAAERLADGRVRIELYNGPTATRDEVLAALRALLAAQGVRAADADLQAVVDAAAAAGGGSATRTIAAEDL</t>
-        </is>
+      <c r="D73" t="n">
+        <v>92.7773045471931</v>
       </c>
       <c r="E73" t="n">
-        <v>91.33423500436464</v>
+        <v>92.92065555104617</v>
       </c>
       <c r="F73" t="n">
-        <v>91.74602182077184</v>
+        <v>88.95461111111111</v>
       </c>
       <c r="G73" t="n">
-        <v>80.62777777777778</v>
+        <v>0.87</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7</v>
+        <v>-25.44915902614788</v>
       </c>
       <c r="J73" t="n">
-        <v>-27.18056635757932</v>
+        <v>16.17142857142857</v>
       </c>
       <c r="K73" t="n">
-        <v>18.04714285714285</v>
+        <v>17</v>
       </c>
       <c r="L73" t="n">
-        <v>20</v>
+        <v>3.411764705882353</v>
       </c>
       <c r="M73" t="n">
-        <v>6.835000000000003</v>
+        <v>10</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.110000000000002</v>
+      </c>
+      <c r="O73" t="n">
+        <v>9.555714285714286</v>
       </c>
     </row>
     <row r="74">
@@ -3747,42 +4045,634 @@
         </is>
       </c>
       <c r="B74" t="n">
+        <v>94</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>89.6400680427337</v>
+      </c>
+      <c r="E74" t="n">
+        <v>89.79418101100289</v>
+      </c>
+      <c r="F74" t="n">
+        <v>85.53038888888888</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-23.96829251855909</v>
+      </c>
+      <c r="J74" t="n">
+        <v>15.00428571428571</v>
+      </c>
+      <c r="K74" t="n">
+        <v>16</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.356250000000003</v>
+      </c>
+      <c r="M74" t="n">
+        <v>10</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4.160000000000002</v>
+      </c>
+      <c r="O74" t="n">
+        <v>9.405714285714286</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>94</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>90.28344398372712</v>
+      </c>
+      <c r="E75" t="n">
+        <v>90.59498146645019</v>
+      </c>
+      <c r="F75" t="n">
+        <v>81.97577777777776</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-25.85548725551557</v>
+      </c>
+      <c r="J75" t="n">
+        <v>16.82714285714286</v>
+      </c>
+      <c r="K75" t="n">
+        <v>18</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4.561111111111106</v>
+      </c>
+      <c r="M75" t="n">
+        <v>10</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4.180000000000007</v>
+      </c>
+      <c r="O75" t="n">
+        <v>9.402857142857142</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>95</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>89.11275015142607</v>
+      </c>
+      <c r="E76" t="n">
+        <v>89.61922131109631</v>
+      </c>
+      <c r="F76" t="n">
+        <v>75.94449999999999</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-21.64270358657118</v>
+      </c>
+      <c r="J76" t="n">
+        <v>12.73142857142857</v>
+      </c>
+      <c r="K76" t="n">
+        <v>14</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6.34285714285714</v>
+      </c>
+      <c r="M76" t="n">
+        <v>9</v>
+      </c>
+      <c r="N76" t="n">
+        <v>6.233333333333336</v>
+      </c>
+      <c r="O76" t="n">
+        <v>8.198571428571428</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>96</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>89.68238767877693</v>
+      </c>
+      <c r="E77" t="n">
+        <v>90.14180649065848</v>
+      </c>
+      <c r="F77" t="n">
+        <v>78.04377777777779</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-23.97823876787769</v>
+      </c>
+      <c r="J77" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="K77" t="n">
+        <v>17</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.194117647058821</v>
+      </c>
+      <c r="M77" t="n">
+        <v>13</v>
+      </c>
+      <c r="N77" t="n">
+        <v>8.184615384615382</v>
+      </c>
+      <c r="O77" t="n">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>96</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7</v>
+      </c>
+      <c r="D78" t="n">
+        <v>89.02770131696714</v>
+      </c>
+      <c r="E78" t="n">
+        <v>89.57055794790006</v>
+      </c>
+      <c r="F78" t="n">
+        <v>75.27533333333332</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-24.93991298883957</v>
+      </c>
+      <c r="J78" t="n">
+        <v>16.03714285714286</v>
+      </c>
+      <c r="K78" t="n">
+        <v>18</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.633333333333338</v>
+      </c>
+      <c r="M78" t="n">
+        <v>11</v>
+      </c>
+      <c r="N78" t="n">
+        <v>7.190909090909093</v>
+      </c>
+      <c r="O78" t="n">
+        <v>9.869999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>97</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>90.69925600517369</v>
+      </c>
+      <c r="E79" t="n">
+        <v>91.31791762562332</v>
+      </c>
+      <c r="F79" t="n">
+        <v>74.40783333333333</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-19.77135417194594</v>
+      </c>
+      <c r="J79" t="n">
+        <v>10.70142857142857</v>
+      </c>
+      <c r="K79" t="n">
+        <v>12</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.574999999999989</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.799999999999993</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2.665714285714286</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>98</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>92.26204582865694</v>
+      </c>
+      <c r="E80" t="n">
+        <v>93.1669728049728</v>
+      </c>
+      <c r="F80" t="n">
+        <v>68.73394444444445</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-17.0962045828657</v>
+      </c>
+      <c r="J80" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="K80" t="n">
+        <v>9</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.788888888888891</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="n">
+        <v>8.439999999999998</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4.397142857142858</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>98</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>93.70500737979442</v>
+      </c>
+      <c r="E81" t="n">
+        <v>93.939982022607</v>
+      </c>
+      <c r="F81" t="n">
+        <v>87.59566666666666</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-27.13192930940801</v>
+      </c>
+      <c r="J81" t="n">
+        <v>17.76142857142857</v>
+      </c>
+      <c r="K81" t="n">
+        <v>19</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4.563157894736844</v>
+      </c>
+      <c r="M81" t="n">
+        <v>12</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4.591666666666669</v>
+      </c>
+      <c r="O81" t="n">
+        <v>11.21285714285714</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>98</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>92.50932855005075</v>
+      </c>
+      <c r="E82" t="n">
+        <v>92.9363775113775</v>
+      </c>
+      <c r="F82" t="n">
+        <v>81.40605555555555</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-26.79378999786222</v>
+      </c>
+      <c r="J82" t="n">
+        <v>17.54285714285714</v>
+      </c>
+      <c r="K82" t="n">
+        <v>19</v>
+      </c>
+      <c r="L82" t="n">
+        <v>5.368421052631591</v>
+      </c>
+      <c r="M82" t="n">
+        <v>11</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4.781818181818195</v>
+      </c>
+      <c r="O82" t="n">
+        <v>10.24857142857143</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>98</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4</v>
+      </c>
+      <c r="D83" t="n">
+        <v>92.30207634991892</v>
+      </c>
+      <c r="E83" t="n">
+        <v>92.68698740611239</v>
+      </c>
+      <c r="F83" t="n">
+        <v>82.29438888888889</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-27.81735049213476</v>
+      </c>
+      <c r="J83" t="n">
+        <v>18.58714285714286</v>
+      </c>
+      <c r="K83" t="n">
+        <v>20</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4.944999999999982</v>
+      </c>
+      <c r="M83" t="n">
+        <v>12</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4.591666666666669</v>
+      </c>
+      <c r="O83" t="n">
+        <v>11.21285714285714</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>99</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>92.37304961876258</v>
+      </c>
+      <c r="E84" t="n">
+        <v>92.84724383486883</v>
+      </c>
+      <c r="F84" t="n">
+        <v>80.044</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-19.68873353330483</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10.45142857142857</v>
+      </c>
+      <c r="K84" t="n">
+        <v>12</v>
+      </c>
+      <c r="L84" t="n">
+        <v>9.033333333333331</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>8.799999999999988</v>
+      </c>
+      <c r="O84" t="n">
+        <v>4.371428571428572</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>99</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>93.48706506422248</v>
+      </c>
+      <c r="E85" t="n">
+        <v>93.99005901968404</v>
+      </c>
+      <c r="F85" t="n">
+        <v>80.40922222222223</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-20.31442079213653</v>
+      </c>
+      <c r="J85" t="n">
+        <v>10.96571428571428</v>
+      </c>
+      <c r="K85" t="n">
+        <v>12</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6.033333333333341</v>
+      </c>
+      <c r="M85" t="n">
+        <v>6</v>
+      </c>
+      <c r="N85" t="n">
+        <v>5.783333333333331</v>
+      </c>
+      <c r="O85" t="n">
+        <v>5.504285714285714</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>v7</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
         <v>100</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C86" t="n">
         <v>4</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>APERVPLVELRLEEGRDTASLTVHNAPWPTPEEMVALVRATLAAAGLVASEEAIRAGVAAAARPEGGSAEVEARRAHHH</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>89.82034974747474</v>
-      </c>
-      <c r="F74" t="n">
-        <v>90.61041155223116</v>
-      </c>
-      <c r="G74" t="n">
-        <v>69.01538888888888</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J74" t="n">
-        <v>-22.12632068903319</v>
-      </c>
-      <c r="K74" t="n">
-        <v>13.14428571428572</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15</v>
-      </c>
-      <c r="M74" t="n">
-        <v>8.659999999999998</v>
+      <c r="D86" t="n">
+        <v>90.87539371062542</v>
+      </c>
+      <c r="E86" t="n">
+        <v>91.61892975870823</v>
+      </c>
+      <c r="F86" t="n">
+        <v>71.29561111111111</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-18.11325365677683</v>
+      </c>
+      <c r="J86" t="n">
+        <v>9.025714285714283</v>
+      </c>
+      <c r="K86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L86" t="n">
+        <v>6.820000000000005</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="n">
+        <v>6.819999999999993</v>
+      </c>
+      <c r="O86" t="n">
+        <v>4.512857142857143</v>
       </c>
     </row>
   </sheetData>
